--- a/Toystore/Files/Прайс лист.xlsx
+++ b/Toystore/Files/Прайс лист.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HOME\УЧЕБА\2035\Курс ASP\Lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSharpLab\Toystore\Toystore\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADAEE48D-9182-4B26-B762-A3A261AB35A2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB141DBC-10DC-4768-9082-8145A564FDFE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16000" windowHeight="7560" xr2:uid="{C4D64945-5187-4B3E-9036-DA9B5CF7682A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="9">
   <si>
     <t>Наименование</t>
   </si>
@@ -69,20 +69,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -106,6 +92,21 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -126,29 +127,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -467,7 +468,7 @@
   <dimension ref="A2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -477,82 +478,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>3</v>
       </c>
     </row>
